--- a/Code/Results/Cases/Case_5_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_128/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9382513506980672</v>
+        <v>0.3674614980063495</v>
       </c>
       <c r="C2">
-        <v>0.3851108608772051</v>
+        <v>0.1346372942852554</v>
       </c>
       <c r="D2">
-        <v>0.06674215183078047</v>
+        <v>0.06677200631238023</v>
       </c>
       <c r="E2">
-        <v>1.36873239851738</v>
+        <v>0.4060931560985779</v>
       </c>
       <c r="F2">
-        <v>2.512317977743663</v>
+        <v>1.862171915237411</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.605348955805638</v>
+        <v>1.31576150524765</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.32008309436813</v>
+        <v>0.4976014749058493</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8072827098240793</v>
+        <v>0.3359955865642803</v>
       </c>
       <c r="C3">
-        <v>0.3307272522358176</v>
+        <v>0.1206964374742654</v>
       </c>
       <c r="D3">
-        <v>0.06585579013912479</v>
+        <v>0.06609435825886223</v>
       </c>
       <c r="E3">
-        <v>1.170122558870233</v>
+        <v>0.3542110107287328</v>
       </c>
       <c r="F3">
-        <v>2.263467010874123</v>
+        <v>1.797652293065028</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.468311740862191</v>
+        <v>1.279320014550265</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.135040915033869</v>
+        <v>0.4521574689580348</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7281531654087985</v>
+        <v>0.3169488502684885</v>
       </c>
       <c r="C4">
-        <v>0.2980171574634198</v>
+        <v>0.1122080978620374</v>
       </c>
       <c r="D4">
-        <v>0.06533787894980492</v>
+        <v>0.0656723034989426</v>
       </c>
       <c r="E4">
-        <v>1.051256509466029</v>
+        <v>0.3224739158650607</v>
       </c>
       <c r="F4">
-        <v>2.114682194505136</v>
+        <v>1.758753930341726</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.386525191749072</v>
+        <v>1.25735127456737</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.023400741766466</v>
+        <v>0.4245923913640866</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6961815493118877</v>
+        <v>0.3092554506754652</v>
       </c>
       <c r="C5">
-        <v>0.2848332816324159</v>
+        <v>0.1087665882742783</v>
       </c>
       <c r="D5">
-        <v>0.06513237670939631</v>
+        <v>0.06549876890305839</v>
       </c>
       <c r="E5">
-        <v>1.003468291631549</v>
+        <v>0.3095682165934619</v>
       </c>
       <c r="F5">
-        <v>2.054943875634677</v>
+        <v>1.74308102942878</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.353722342362914</v>
+        <v>1.24849993428306</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.978328619150318</v>
+        <v>0.413443442269056</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6908879079070402</v>
+        <v>0.3079820794116301</v>
       </c>
       <c r="C6">
-        <v>0.2826522086148771</v>
+        <v>0.1081961771713225</v>
       </c>
       <c r="D6">
-        <v>0.06509855940226927</v>
+        <v>0.06546985916806847</v>
       </c>
       <c r="E6">
-        <v>0.9955690141928102</v>
+        <v>0.3074268207167989</v>
       </c>
       <c r="F6">
-        <v>2.045075098220806</v>
+        <v>1.740489285127609</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.348305384881044</v>
+        <v>1.247036249712409</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9708678685023813</v>
+        <v>0.4115972184584109</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7277209357897902</v>
+        <v>0.3168448184519264</v>
       </c>
       <c r="C7">
-        <v>0.2978387970761958</v>
+        <v>0.1121616138887305</v>
       </c>
       <c r="D7">
-        <v>0.06533508632826113</v>
+        <v>0.06566996945688075</v>
       </c>
       <c r="E7">
-        <v>1.050609540760078</v>
+        <v>0.3222997572284783</v>
       </c>
       <c r="F7">
-        <v>2.113873073740294</v>
+        <v>1.758541839760454</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.386080755369079</v>
+        <v>1.257231494432872</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.022791267918421</v>
+        <v>0.42444169359851</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8927955186431973</v>
+        <v>0.3565550016707562</v>
       </c>
       <c r="C8">
-        <v>0.3662016558822074</v>
+        <v>0.1298154225422081</v>
       </c>
       <c r="D8">
-        <v>0.06643039223555292</v>
+        <v>0.06653956873041267</v>
       </c>
       <c r="E8">
-        <v>1.299533102271823</v>
+        <v>0.3881780573897657</v>
       </c>
       <c r="F8">
-        <v>2.425608632148695</v>
+        <v>1.839775648506247</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.557567922895899</v>
+        <v>1.303111429933892</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.2558229616875</v>
+        <v>0.4818617372618235</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.229198018035731</v>
+        <v>0.4366222356236165</v>
       </c>
       <c r="C9">
-        <v>0.5069789966519522</v>
+        <v>0.1650208782557456</v>
       </c>
       <c r="D9">
-        <v>0.06884222278814178</v>
+        <v>0.06819933090917374</v>
       </c>
       <c r="E9">
-        <v>1.818548532074516</v>
+        <v>0.518423950626854</v>
       </c>
       <c r="F9">
-        <v>3.074599779716692</v>
+        <v>2.004853372606021</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.915888650016214</v>
+        <v>1.396362469679786</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.732288743826189</v>
+        <v>0.5971885363218519</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.488062021915596</v>
+        <v>0.4968292398425262</v>
       </c>
       <c r="C10">
-        <v>0.6166046203904898</v>
+        <v>0.1912740684736889</v>
       </c>
       <c r="D10">
-        <v>0.07086506062997699</v>
+        <v>0.06939370025246205</v>
       </c>
       <c r="E10">
-        <v>2.229211539042652</v>
+        <v>0.6149319374781896</v>
       </c>
       <c r="F10">
-        <v>3.583677593162236</v>
+        <v>2.129796567972051</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.197893653085885</v>
+        <v>1.46695804333099</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.100317945990298</v>
+        <v>0.6836555483528173</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.609421782184313</v>
+        <v>0.5245289083201499</v>
       </c>
       <c r="C11">
-        <v>0.6683846002156315</v>
+        <v>0.203308303327475</v>
       </c>
       <c r="D11">
-        <v>0.07186456164265564</v>
+        <v>0.06993219330988865</v>
       </c>
       <c r="E11">
-        <v>2.425304827340227</v>
+        <v>0.6590511050090555</v>
       </c>
       <c r="F11">
-        <v>3.824729177521931</v>
+        <v>2.187462106484929</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.331657404740653</v>
+        <v>1.499545009991365</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.273265788937294</v>
+        <v>0.7233856272114849</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.655999503625509</v>
+        <v>0.5350634907246103</v>
       </c>
       <c r="C12">
-        <v>0.6883233159379927</v>
+        <v>0.2078790215188349</v>
       </c>
       <c r="D12">
-        <v>0.07225699570616939</v>
+        <v>0.07013545783453168</v>
       </c>
       <c r="E12">
-        <v>2.501192445844254</v>
+        <v>0.6757920739398315</v>
       </c>
       <c r="F12">
-        <v>3.917612667688218</v>
+        <v>2.209419891174662</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.383236175273041</v>
+        <v>1.511954190808567</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.339712430428449</v>
+        <v>0.738488502314965</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.645938693711884</v>
+        <v>0.5327926550976088</v>
       </c>
       <c r="C13">
-        <v>0.6840134533953233</v>
+        <v>0.2068940227615315</v>
       </c>
       <c r="D13">
-        <v>0.07217181216927315</v>
+        <v>0.07009170944251508</v>
       </c>
       <c r="E13">
-        <v>2.484770799468009</v>
+        <v>0.6721850501930078</v>
       </c>
       <c r="F13">
-        <v>3.897533034990602</v>
+        <v>2.20468547152359</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.372084187042688</v>
+        <v>1.509278554078136</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.325356656005795</v>
+        <v>0.7352332334718881</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.613240653363732</v>
+        <v>0.5253946831734027</v>
       </c>
       <c r="C14">
-        <v>0.6700179872698016</v>
+        <v>0.2036840635822728</v>
       </c>
       <c r="D14">
-        <v>0.07189655168905063</v>
+        <v>0.06994892880323533</v>
       </c>
       <c r="E14">
-        <v>2.431513551492387</v>
+        <v>0.6604276972341836</v>
       </c>
       <c r="F14">
-        <v>3.83233712844816</v>
+        <v>2.189266148174369</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.335881411379546</v>
+        <v>1.500564526718023</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.278712245343314</v>
+        <v>0.7246269822525164</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.593296438648451</v>
+        <v>0.5208691308149298</v>
       </c>
       <c r="C15">
-        <v>0.6614902555723745</v>
+        <v>0.2017196575117737</v>
       </c>
       <c r="D15">
-        <v>0.07172984625256618</v>
+        <v>0.0698613880445933</v>
       </c>
       <c r="E15">
-        <v>2.399114162293102</v>
+        <v>0.6532304893943319</v>
       </c>
       <c r="F15">
-        <v>3.792619228541952</v>
+        <v>2.179837197392146</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.313831119784894</v>
+        <v>1.495235982498386</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.250270756545717</v>
+        <v>0.7181379260844665</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.480211832996048</v>
+        <v>0.4950253117589796</v>
       </c>
       <c r="C16">
-        <v>0.6132637074734646</v>
+        <v>0.1904894832386503</v>
       </c>
       <c r="D16">
-        <v>0.07080154338293454</v>
+        <v>0.06935841496872541</v>
       </c>
       <c r="E16">
-        <v>2.21660727001246</v>
+        <v>0.6120532520446744</v>
       </c>
       <c r="F16">
-        <v>3.568134611455719</v>
+        <v>2.126044825968137</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.18927340205309</v>
+        <v>1.46483802511645</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.089139767051336</v>
+        <v>0.6810671472080116</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.411829237010664</v>
+        <v>0.4792510712150886</v>
       </c>
       <c r="C17">
-        <v>0.5842047336576286</v>
+        <v>0.183623897271957</v>
       </c>
       <c r="D17">
-        <v>0.07025403724568946</v>
+        <v>0.06904865079469147</v>
       </c>
       <c r="E17">
-        <v>2.107216733055409</v>
+        <v>0.5868499337546922</v>
       </c>
       <c r="F17">
-        <v>3.433006057932857</v>
+        <v>2.093258495743044</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.114355884381695</v>
+        <v>1.446311801886054</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.991813452296498</v>
+        <v>0.6584275321428379</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.372829279659925</v>
+        <v>0.4702074018721021</v>
       </c>
       <c r="C18">
-        <v>0.5676667887046847</v>
+        <v>0.1796835811859978</v>
       </c>
       <c r="D18">
-        <v>0.06994641377058031</v>
+        <v>0.06887002524302943</v>
       </c>
       <c r="E18">
-        <v>2.045151074175365</v>
+        <v>0.5723739275612019</v>
       </c>
       <c r="F18">
-        <v>3.356158621421486</v>
+        <v>2.074478504083658</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.071771590340163</v>
+        <v>1.435700425350177</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.936343470714775</v>
+        <v>0.6454430153353314</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.359678668279884</v>
+        <v>0.4671503786114215</v>
       </c>
       <c r="C19">
-        <v>0.5620959925285263</v>
+        <v>0.1783509190740915</v>
       </c>
       <c r="D19">
-        <v>0.06984343934029624</v>
+        <v>0.06880946581576097</v>
       </c>
       <c r="E19">
-        <v>2.024275015048502</v>
+        <v>0.567475999510421</v>
       </c>
       <c r="F19">
-        <v>3.330282916934124</v>
+        <v>2.068133229986813</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.05743637497757</v>
+        <v>1.432115186909073</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.917645329819379</v>
+        <v>0.6410530373226493</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.419073630849311</v>
+        <v>0.4809272340359882</v>
       </c>
       <c r="C20">
-        <v>0.5872795179475077</v>
+        <v>0.184353858595415</v>
       </c>
       <c r="D20">
-        <v>0.07031154903376802</v>
+        <v>0.06908167274365695</v>
       </c>
       <c r="E20">
-        <v>2.118771294822437</v>
+        <v>0.5895307515949071</v>
       </c>
       <c r="F20">
-        <v>3.447298542555046</v>
+        <v>2.09674058624995</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.122277653454759</v>
+        <v>1.448279344114781</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.002120190341884</v>
+        <v>0.6608337012244192</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.622827088173921</v>
+        <v>0.527566412292316</v>
       </c>
       <c r="C21">
-        <v>0.6741193253216977</v>
+        <v>0.204626533255805</v>
       </c>
       <c r="D21">
-        <v>0.07197700127012041</v>
+        <v>0.06999088425924072</v>
       </c>
       <c r="E21">
-        <v>2.447109575940914</v>
+        <v>0.6638801718571159</v>
       </c>
       <c r="F21">
-        <v>3.851441149320038</v>
+        <v>2.193791874659922</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.346488727405344</v>
+        <v>1.503122159732584</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.292385516657276</v>
+        <v>0.7277407139965533</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.759674440108654</v>
+        <v>0.5583122419028257</v>
       </c>
       <c r="C22">
-        <v>0.7328352270093035</v>
+        <v>0.2179554705475368</v>
       </c>
       <c r="D22">
-        <v>0.07314829924663968</v>
+        <v>0.07058133181703852</v>
       </c>
       <c r="E22">
-        <v>2.671387504234275</v>
+        <v>0.7126712962469952</v>
       </c>
       <c r="F22">
-        <v>4.125052668686408</v>
+        <v>2.257927289824607</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.498497442549294</v>
+        <v>1.539369063414668</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.487751375411847</v>
+        <v>0.7718066299608211</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.686260775381641</v>
+        <v>0.541878226248059</v>
       </c>
       <c r="C23">
-        <v>0.7012969582791584</v>
+        <v>0.2108341331749841</v>
       </c>
       <c r="D23">
-        <v>0.07251460593283099</v>
+        <v>0.07026652974285952</v>
       </c>
       <c r="E23">
-        <v>2.550686039722279</v>
+        <v>0.6866113771413183</v>
       </c>
       <c r="F23">
-        <v>3.978063756692023</v>
+        <v>2.223631675065661</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.416815383344456</v>
+        <v>1.519986036632417</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.382903119580817</v>
+        <v>0.7482565151435665</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.415797469619605</v>
+        <v>0.4801693625255439</v>
       </c>
       <c r="C24">
-        <v>0.5858888873996477</v>
+        <v>0.1840238219356536</v>
       </c>
       <c r="D24">
-        <v>0.07028552588576531</v>
+        <v>0.06906674519888867</v>
       </c>
       <c r="E24">
-        <v>2.113544931168235</v>
+        <v>0.5883187113625326</v>
       </c>
       <c r="F24">
-        <v>3.440834312260364</v>
+        <v>2.095166117392637</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.118694715544265</v>
+        <v>1.447389695021684</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.997459017583992</v>
+        <v>0.659745774772631</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136454653728038</v>
+        <v>0.4147224710028468</v>
       </c>
       <c r="C25">
-        <v>0.4679762132732321</v>
+        <v>0.1554309907685081</v>
       </c>
       <c r="D25">
-        <v>0.06815305302821884</v>
+        <v>0.06775491684414447</v>
       </c>
       <c r="E25">
-        <v>1.67384773047209</v>
+        <v>0.4830581212895595</v>
       </c>
       <c r="F25">
-        <v>2.894108458332653</v>
+        <v>1.95956267409062</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.816086438507142</v>
+        <v>1.370775727204375</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.600725622516194</v>
+        <v>0.56569010782502</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_128/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3674614980063495</v>
+        <v>0.9382513506981525</v>
       </c>
       <c r="C2">
-        <v>0.1346372942852554</v>
+        <v>0.3851108608774325</v>
       </c>
       <c r="D2">
-        <v>0.06677200631238023</v>
+        <v>0.06674215183078758</v>
       </c>
       <c r="E2">
-        <v>0.4060931560985779</v>
+        <v>1.36873239851738</v>
       </c>
       <c r="F2">
-        <v>1.862171915237411</v>
+        <v>2.512317977743663</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.31576150524765</v>
+        <v>1.605348955805624</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4976014749058493</v>
+        <v>1.320083094368044</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3359955865642803</v>
+        <v>0.8072827098241646</v>
       </c>
       <c r="C3">
-        <v>0.1206964374742654</v>
+        <v>0.3307272522355618</v>
       </c>
       <c r="D3">
-        <v>0.06609435825886223</v>
+        <v>0.06585579013897558</v>
       </c>
       <c r="E3">
-        <v>0.3542110107287328</v>
+        <v>1.170122558870247</v>
       </c>
       <c r="F3">
-        <v>1.797652293065028</v>
+        <v>2.263467010874109</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.279320014550265</v>
+        <v>1.468311740862205</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4521574689580348</v>
+        <v>1.135040915033841</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3169488502684885</v>
+        <v>0.7281531654088838</v>
       </c>
       <c r="C4">
-        <v>0.1122080978620374</v>
+        <v>0.2980171574629935</v>
       </c>
       <c r="D4">
-        <v>0.0656723034989426</v>
+        <v>0.06533787894992216</v>
       </c>
       <c r="E4">
-        <v>0.3224739158650607</v>
+        <v>1.051256509466015</v>
       </c>
       <c r="F4">
-        <v>1.758753930341726</v>
+        <v>2.114682194505122</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.25735127456737</v>
+        <v>1.386525191749087</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4245923913640866</v>
+        <v>1.023400741766494</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3092554506754652</v>
+        <v>0.6961815493118593</v>
       </c>
       <c r="C5">
-        <v>0.1087665882742783</v>
+        <v>0.2848332816325865</v>
       </c>
       <c r="D5">
-        <v>0.06549876890305839</v>
+        <v>0.06513237670937855</v>
       </c>
       <c r="E5">
-        <v>0.3095682165934619</v>
+        <v>1.003468291631535</v>
       </c>
       <c r="F5">
-        <v>1.74308102942878</v>
+        <v>2.054943875634692</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.24849993428306</v>
+        <v>1.353722342362914</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.413443442269056</v>
+        <v>0.9783286191502043</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3079820794116301</v>
+        <v>0.6908879079070971</v>
       </c>
       <c r="C6">
-        <v>0.1081961771713225</v>
+        <v>0.2826522086148771</v>
       </c>
       <c r="D6">
-        <v>0.06546985916806847</v>
+        <v>0.06509855940248244</v>
       </c>
       <c r="E6">
-        <v>0.3074268207167989</v>
+        <v>0.9955690141928386</v>
       </c>
       <c r="F6">
-        <v>1.740489285127609</v>
+        <v>2.045075098220821</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.247036249712409</v>
+        <v>1.348305384881044</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4115972184584109</v>
+        <v>0.9708678685024381</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3168448184519264</v>
+        <v>0.7277209357899039</v>
       </c>
       <c r="C7">
-        <v>0.1121616138887305</v>
+        <v>0.2978387970761389</v>
       </c>
       <c r="D7">
-        <v>0.06566996945688075</v>
+        <v>0.06533508632817231</v>
       </c>
       <c r="E7">
-        <v>0.3222997572284783</v>
+        <v>1.050609540760078</v>
       </c>
       <c r="F7">
-        <v>1.758541839760454</v>
+        <v>2.113873073740308</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.257231494432872</v>
+        <v>1.386080755369065</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.42444169359851</v>
+        <v>1.022791267918478</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3565550016707562</v>
+        <v>0.8927955186432257</v>
       </c>
       <c r="C8">
-        <v>0.1298154225422081</v>
+        <v>0.3662016558822359</v>
       </c>
       <c r="D8">
-        <v>0.06653956873041267</v>
+        <v>0.06643039223555292</v>
       </c>
       <c r="E8">
-        <v>0.3881780573897657</v>
+        <v>1.299533102271894</v>
       </c>
       <c r="F8">
-        <v>1.839775648506247</v>
+        <v>2.425608632148737</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.303111429933892</v>
+        <v>1.557567922895913</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4818617372618235</v>
+        <v>1.255822961687585</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4366222356236165</v>
+        <v>1.229198018035731</v>
       </c>
       <c r="C9">
-        <v>0.1650208782557456</v>
+        <v>0.5069789966516964</v>
       </c>
       <c r="D9">
-        <v>0.06819933090917374</v>
+        <v>0.06884222278799257</v>
       </c>
       <c r="E9">
-        <v>0.518423950626854</v>
+        <v>1.818548532074473</v>
       </c>
       <c r="F9">
-        <v>2.004853372606021</v>
+        <v>3.074599779716749</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.396362469679786</v>
+        <v>1.915888650016242</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5971885363218519</v>
+        <v>1.732288743826075</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4968292398425262</v>
+        <v>1.488062021915624</v>
       </c>
       <c r="C10">
-        <v>0.1912740684736889</v>
+        <v>0.6166046203907456</v>
       </c>
       <c r="D10">
-        <v>0.06939370025246205</v>
+        <v>0.07086506062977094</v>
       </c>
       <c r="E10">
-        <v>0.6149319374781896</v>
+        <v>2.229211539042666</v>
       </c>
       <c r="F10">
-        <v>2.129796567972051</v>
+        <v>3.583677593162292</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.46695804333099</v>
+        <v>2.197893653085913</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6836555483528173</v>
+        <v>2.100317945990241</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5245289083201499</v>
+        <v>1.609421782184285</v>
       </c>
       <c r="C11">
-        <v>0.203308303327475</v>
+        <v>0.6683846002152904</v>
       </c>
       <c r="D11">
-        <v>0.06993219330988865</v>
+        <v>0.07186456164227906</v>
       </c>
       <c r="E11">
-        <v>0.6590511050090555</v>
+        <v>2.425304827340256</v>
       </c>
       <c r="F11">
-        <v>2.187462106484929</v>
+        <v>3.824729177521903</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.499545009991365</v>
+        <v>2.331657404740639</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7233856272114849</v>
+        <v>2.273265788937181</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5350634907246103</v>
+        <v>1.65599950362548</v>
       </c>
       <c r="C12">
-        <v>0.2078790215188349</v>
+        <v>0.6883233159381916</v>
       </c>
       <c r="D12">
-        <v>0.07013545783453168</v>
+        <v>0.07225699570614807</v>
       </c>
       <c r="E12">
-        <v>0.6757920739398315</v>
+        <v>2.501192445844197</v>
       </c>
       <c r="F12">
-        <v>2.209419891174662</v>
+        <v>3.917612667688218</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.511954190808567</v>
+        <v>2.383236175273083</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.738488502314965</v>
+        <v>2.339712430428392</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5327926550976088</v>
+        <v>1.645938693711685</v>
       </c>
       <c r="C13">
-        <v>0.2068940227615315</v>
+        <v>0.6840134533952948</v>
       </c>
       <c r="D13">
-        <v>0.07009170944251508</v>
+        <v>0.07217181216944368</v>
       </c>
       <c r="E13">
-        <v>0.6721850501930078</v>
+        <v>2.484770799468052</v>
       </c>
       <c r="F13">
-        <v>2.20468547152359</v>
+        <v>3.897533034990602</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.509278554078136</v>
+        <v>2.372084187042645</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7352332334718881</v>
+        <v>2.325356656005766</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5253946831734027</v>
+        <v>1.613240653363619</v>
       </c>
       <c r="C14">
-        <v>0.2036840635822728</v>
+        <v>0.670017987269091</v>
       </c>
       <c r="D14">
-        <v>0.06994892880323533</v>
+        <v>0.07189655168917852</v>
       </c>
       <c r="E14">
-        <v>0.6604276972341836</v>
+        <v>2.431513551492372</v>
       </c>
       <c r="F14">
-        <v>2.189266148174369</v>
+        <v>3.832337128448131</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.500564526718023</v>
+        <v>2.335881411379518</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7246269822525164</v>
+        <v>2.2787122453432</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5208691308149298</v>
+        <v>1.593296438648451</v>
       </c>
       <c r="C15">
-        <v>0.2017196575117737</v>
+        <v>0.6614902555723745</v>
       </c>
       <c r="D15">
-        <v>0.0698613880445933</v>
+        <v>0.07172984625258039</v>
       </c>
       <c r="E15">
-        <v>0.6532304893943319</v>
+        <v>2.399114162292989</v>
       </c>
       <c r="F15">
-        <v>2.179837197392146</v>
+        <v>3.792619228541923</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.495235982498386</v>
+        <v>2.313831119784908</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7181379260844665</v>
+        <v>2.250270756545831</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4950253117589796</v>
+        <v>1.480211832996048</v>
       </c>
       <c r="C16">
-        <v>0.1904894832386503</v>
+        <v>0.6132637074734362</v>
       </c>
       <c r="D16">
-        <v>0.06935841496872541</v>
+        <v>0.07080154338283506</v>
       </c>
       <c r="E16">
-        <v>0.6120532520446744</v>
+        <v>2.216607270012489</v>
       </c>
       <c r="F16">
-        <v>2.126044825968137</v>
+        <v>3.56813461145569</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.46483802511645</v>
+        <v>2.18927340205309</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6810671472080116</v>
+        <v>2.089139767051478</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4792510712150886</v>
+        <v>1.411829237010494</v>
       </c>
       <c r="C17">
-        <v>0.183623897271957</v>
+        <v>0.5842047336570886</v>
       </c>
       <c r="D17">
-        <v>0.06904865079469147</v>
+        <v>0.07025403724590973</v>
       </c>
       <c r="E17">
-        <v>0.5868499337546922</v>
+        <v>2.107216733055395</v>
       </c>
       <c r="F17">
-        <v>2.093258495743044</v>
+        <v>3.433006057932886</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.446311801886054</v>
+        <v>2.114355884381695</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6584275321428379</v>
+        <v>1.991813452296554</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4702074018721021</v>
+        <v>1.372829279659754</v>
       </c>
       <c r="C18">
-        <v>0.1796835811859978</v>
+        <v>0.5676667887046847</v>
       </c>
       <c r="D18">
-        <v>0.06887002524302943</v>
+        <v>0.06994641377028898</v>
       </c>
       <c r="E18">
-        <v>0.5723739275612019</v>
+        <v>2.045151074175351</v>
       </c>
       <c r="F18">
-        <v>2.074478504083658</v>
+        <v>3.356158621421542</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.435700425350177</v>
+        <v>2.071771590340177</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6454430153353314</v>
+        <v>1.936343470714746</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4671503786114215</v>
+        <v>1.359678668279628</v>
       </c>
       <c r="C19">
-        <v>0.1783509190740915</v>
+        <v>0.5620959925285547</v>
       </c>
       <c r="D19">
-        <v>0.06880946581576097</v>
+        <v>0.06984343934028914</v>
       </c>
       <c r="E19">
-        <v>0.567475999510421</v>
+        <v>2.024275015048502</v>
       </c>
       <c r="F19">
-        <v>2.068133229986813</v>
+        <v>3.330282916934124</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.432115186909073</v>
+        <v>2.057436374977584</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6410530373226493</v>
+        <v>1.917645329819294</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4809272340359882</v>
+        <v>1.41907363084934</v>
       </c>
       <c r="C20">
-        <v>0.184353858595415</v>
+        <v>0.5872795179472519</v>
       </c>
       <c r="D20">
-        <v>0.06908167274365695</v>
+        <v>0.07031154903423698</v>
       </c>
       <c r="E20">
-        <v>0.5895307515949071</v>
+        <v>2.118771294822466</v>
       </c>
       <c r="F20">
-        <v>2.09674058624995</v>
+        <v>3.447298542555046</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.448279344114781</v>
+        <v>2.122277653454759</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6608337012244192</v>
+        <v>2.002120190341799</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.527566412292316</v>
+        <v>1.622827088173807</v>
       </c>
       <c r="C21">
-        <v>0.204626533255805</v>
+        <v>0.6741193253218682</v>
       </c>
       <c r="D21">
-        <v>0.06999088425924072</v>
+        <v>0.0719770012701062</v>
       </c>
       <c r="E21">
-        <v>0.6638801718571159</v>
+        <v>2.447109575940956</v>
       </c>
       <c r="F21">
-        <v>2.193791874659922</v>
+        <v>3.851441149320067</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.503122159732584</v>
+        <v>2.34648872740533</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7277407139965533</v>
+        <v>2.292385516657305</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5583122419028257</v>
+        <v>1.759674440108398</v>
       </c>
       <c r="C22">
-        <v>0.2179554705475368</v>
+        <v>0.7328352270092751</v>
       </c>
       <c r="D22">
-        <v>0.07058133181703852</v>
+        <v>0.07314829924687416</v>
       </c>
       <c r="E22">
-        <v>0.7126712962469952</v>
+        <v>2.671387504234275</v>
       </c>
       <c r="F22">
-        <v>2.257927289824607</v>
+        <v>4.125052668686436</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.539369063414668</v>
+        <v>2.498497442549322</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7718066299608211</v>
+        <v>2.487751375412017</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.541878226248059</v>
+        <v>1.686260775381726</v>
       </c>
       <c r="C23">
-        <v>0.2108341331749841</v>
+        <v>0.70129695827913</v>
       </c>
       <c r="D23">
-        <v>0.07026652974285952</v>
+        <v>0.07251460593256809</v>
       </c>
       <c r="E23">
-        <v>0.6866113771413183</v>
+        <v>2.550686039722279</v>
       </c>
       <c r="F23">
-        <v>2.223631675065661</v>
+        <v>3.97806375669208</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.519986036632417</v>
+        <v>2.416815383344485</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7482565151435665</v>
+        <v>2.382903119580988</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4801693625255439</v>
+        <v>1.415797469619605</v>
       </c>
       <c r="C24">
-        <v>0.1840238219356536</v>
+        <v>0.5858888873993635</v>
       </c>
       <c r="D24">
-        <v>0.06906674519888867</v>
+        <v>0.07028552588582926</v>
       </c>
       <c r="E24">
-        <v>0.5883187113625326</v>
+        <v>2.113544931168235</v>
       </c>
       <c r="F24">
-        <v>2.095166117392637</v>
+        <v>3.440834312260478</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.447389695021684</v>
+        <v>2.118694715544251</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.659745774772631</v>
+        <v>1.997459017584021</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4147224710028468</v>
+        <v>1.13645465372781</v>
       </c>
       <c r="C25">
-        <v>0.1554309907685081</v>
+        <v>0.4679762132734311</v>
       </c>
       <c r="D25">
-        <v>0.06775491684414447</v>
+        <v>0.06815305302819752</v>
       </c>
       <c r="E25">
-        <v>0.4830581212895595</v>
+        <v>1.673847730472062</v>
       </c>
       <c r="F25">
-        <v>1.95956267409062</v>
+        <v>2.894108458332624</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.370775727204375</v>
+        <v>1.816086438507156</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.56569010782502</v>
+        <v>1.600725622516251</v>
       </c>
       <c r="L25">
         <v>0</v>
